--- a/src/test/resources/testdata/seller4.xlsx
+++ b/src/test/resources/testdata/seller4.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="214">
   <si>
     <t>Run Time    :</t>
   </si>
@@ -625,6 +625,42 @@
   </si>
   <si>
     <t>A2ZMY2TBBDRA6P</t>
+  </si>
+  <si>
+    <t>30/10--0:29</t>
+  </si>
+  <si>
+    <t>30/10--8:1</t>
+  </si>
+  <si>
+    <t>30/10--15:29</t>
+  </si>
+  <si>
+    <t>30/10--22:50</t>
+  </si>
+  <si>
+    <t>31/10--11:6</t>
+  </si>
+  <si>
+    <t>31/10--21:7</t>
+  </si>
+  <si>
+    <t>1/11--21:6</t>
+  </si>
+  <si>
+    <t>2/11--18:23</t>
+  </si>
+  <si>
+    <t>3/11--8:13</t>
+  </si>
+  <si>
+    <t>B000WG9JJU</t>
+  </si>
+  <si>
+    <t>B0BXM3JYKS</t>
+  </si>
+  <si>
+    <t>B0BWLDV74L</t>
   </si>
 </sst>
 </file>
@@ -658,12 +694,22 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -678,7 +724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -697,6 +743,34 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -977,33 +1051,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:K203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201:B203"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" style="3" customWidth="1"/>
+    <col min="3" max="17" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1011,7 +1115,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -1019,7 +1123,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -1027,7 +1131,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -1035,7 +1139,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1043,31 +1147,112 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>23.49</v>
+      </c>
+      <c r="D8">
+        <v>23.49</v>
+      </c>
+      <c r="E8">
+        <v>23.49</v>
+      </c>
+      <c r="F8">
+        <v>23.49</v>
+      </c>
+      <c r="G8">
+        <v>23.49</v>
+      </c>
+      <c r="H8">
+        <v>23.49</v>
+      </c>
+      <c r="I8">
+        <v>23.49</v>
+      </c>
+      <c r="J8">
+        <v>23.49</v>
+      </c>
+      <c r="K8">
+        <v>23.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>22.99</v>
+      </c>
+      <c r="D9">
+        <v>22.99</v>
+      </c>
+      <c r="E9">
+        <v>22.99</v>
+      </c>
+      <c r="F9">
+        <v>22.99</v>
+      </c>
+      <c r="G9">
+        <v>22.99</v>
+      </c>
+      <c r="H9">
+        <v>22.99</v>
+      </c>
+      <c r="I9" s="18">
+        <v>23.49</v>
+      </c>
+      <c r="J9">
+        <v>23.49</v>
+      </c>
+      <c r="K9">
+        <v>23.49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>25.99</v>
+      </c>
+      <c r="D10">
+        <v>25.99</v>
+      </c>
+      <c r="E10" s="8">
+        <v>25.98</v>
+      </c>
+      <c r="F10" s="11">
+        <v>25.99</v>
+      </c>
+      <c r="G10">
+        <v>25.99</v>
+      </c>
+      <c r="H10">
+        <v>25.99</v>
+      </c>
+      <c r="I10">
+        <v>25.99</v>
+      </c>
+      <c r="J10">
+        <v>25.99</v>
+      </c>
+      <c r="K10">
+        <v>25.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -1075,7 +1260,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
@@ -1083,7 +1268,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -1091,7 +1276,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
@@ -1099,7 +1284,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
@@ -1107,7 +1292,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
@@ -1115,7 +1300,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
@@ -1123,15 +1308,42 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>31.49</v>
+      </c>
+      <c r="D18">
+        <v>31.49</v>
+      </c>
+      <c r="E18">
+        <v>31.49</v>
+      </c>
+      <c r="F18">
+        <v>31.49</v>
+      </c>
+      <c r="G18">
+        <v>31.49</v>
+      </c>
+      <c r="H18">
+        <v>31.49</v>
+      </c>
+      <c r="I18" s="19">
+        <v>33.99</v>
+      </c>
+      <c r="J18">
+        <v>33.99</v>
+      </c>
+      <c r="K18">
+        <v>33.99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -1139,7 +1351,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
@@ -1147,23 +1359,77 @@
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>22.5</v>
+      </c>
+      <c r="D21">
+        <v>22.5</v>
+      </c>
+      <c r="E21">
+        <v>22.5</v>
+      </c>
+      <c r="F21">
+        <v>22.5</v>
+      </c>
+      <c r="G21">
+        <v>22.5</v>
+      </c>
+      <c r="H21">
+        <v>22.5</v>
+      </c>
+      <c r="I21">
+        <v>22.5</v>
+      </c>
+      <c r="J21">
+        <v>22.5</v>
+      </c>
+      <c r="K21">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>30.99</v>
+      </c>
+      <c r="D22">
+        <v>30.99</v>
+      </c>
+      <c r="E22">
+        <v>30.99</v>
+      </c>
+      <c r="F22">
+        <v>30.99</v>
+      </c>
+      <c r="G22">
+        <v>30.99</v>
+      </c>
+      <c r="H22">
+        <v>30.99</v>
+      </c>
+      <c r="I22">
+        <v>30.99</v>
+      </c>
+      <c r="J22">
+        <v>30.99</v>
+      </c>
+      <c r="K22">
+        <v>30.99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
@@ -1171,7 +1437,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>24</v>
       </c>
@@ -1179,15 +1445,42 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>25.49</v>
+      </c>
+      <c r="D25">
+        <v>25.49</v>
+      </c>
+      <c r="E25">
+        <v>25.49</v>
+      </c>
+      <c r="F25">
+        <v>25.49</v>
+      </c>
+      <c r="G25">
+        <v>25.49</v>
+      </c>
+      <c r="H25">
+        <v>25.49</v>
+      </c>
+      <c r="I25">
+        <v>25.49</v>
+      </c>
+      <c r="J25">
+        <v>25.49</v>
+      </c>
+      <c r="K25">
+        <v>25.49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>26</v>
       </c>
@@ -1195,15 +1488,42 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>32.99</v>
+      </c>
+      <c r="D27">
+        <v>32.99</v>
+      </c>
+      <c r="E27">
+        <v>32.99</v>
+      </c>
+      <c r="F27">
+        <v>32.99</v>
+      </c>
+      <c r="G27">
+        <v>32.99</v>
+      </c>
+      <c r="H27">
+        <v>32.99</v>
+      </c>
+      <c r="I27">
+        <v>32.99</v>
+      </c>
+      <c r="J27">
+        <v>32.99</v>
+      </c>
+      <c r="K27">
+        <v>32.99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>28</v>
       </c>
@@ -1211,7 +1531,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>29</v>
       </c>
@@ -1219,7 +1539,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>30</v>
       </c>
@@ -1227,15 +1547,42 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>23</v>
+      </c>
+      <c r="D31">
+        <v>23</v>
+      </c>
+      <c r="E31">
+        <v>23</v>
+      </c>
+      <c r="F31">
+        <v>23</v>
+      </c>
+      <c r="G31">
+        <v>23</v>
+      </c>
+      <c r="H31">
+        <v>23</v>
+      </c>
+      <c r="I31">
+        <v>23</v>
+      </c>
+      <c r="J31">
+        <v>23</v>
+      </c>
+      <c r="K31">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>32</v>
       </c>
@@ -1243,7 +1590,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>33</v>
       </c>
@@ -1251,23 +1598,77 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>27.49</v>
+      </c>
+      <c r="D34">
+        <v>27.49</v>
+      </c>
+      <c r="E34">
+        <v>27.49</v>
+      </c>
+      <c r="F34">
+        <v>27.49</v>
+      </c>
+      <c r="G34">
+        <v>27.49</v>
+      </c>
+      <c r="H34">
+        <v>27.49</v>
+      </c>
+      <c r="I34">
+        <v>27.49</v>
+      </c>
+      <c r="J34">
+        <v>27.49</v>
+      </c>
+      <c r="K34">
+        <v>27.49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>25.99</v>
+      </c>
+      <c r="D35">
+        <v>25.99</v>
+      </c>
+      <c r="E35">
+        <v>25.99</v>
+      </c>
+      <c r="F35">
+        <v>25.99</v>
+      </c>
+      <c r="G35">
+        <v>25.99</v>
+      </c>
+      <c r="H35">
+        <v>25.99</v>
+      </c>
+      <c r="I35" s="20">
+        <v>24.49</v>
+      </c>
+      <c r="J35">
+        <v>24.49</v>
+      </c>
+      <c r="K35">
+        <v>24.49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>36</v>
       </c>
@@ -1275,15 +1676,42 @@
         <v>201</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>23.49</v>
+      </c>
+      <c r="D37">
+        <v>23.49</v>
+      </c>
+      <c r="E37">
+        <v>23.49</v>
+      </c>
+      <c r="F37">
+        <v>23.49</v>
+      </c>
+      <c r="G37">
+        <v>23.49</v>
+      </c>
+      <c r="H37">
+        <v>23.49</v>
+      </c>
+      <c r="I37">
+        <v>23.49</v>
+      </c>
+      <c r="J37">
+        <v>23.49</v>
+      </c>
+      <c r="K37">
+        <v>23.49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>38</v>
       </c>
@@ -1291,7 +1719,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>39</v>
       </c>
@@ -1299,7 +1727,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>40</v>
       </c>
@@ -1307,7 +1735,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>41</v>
       </c>
@@ -1315,7 +1743,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>42</v>
       </c>
@@ -1323,23 +1751,77 @@
         <v>201</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>33.99</v>
+      </c>
+      <c r="D43">
+        <v>33.99</v>
+      </c>
+      <c r="E43">
+        <v>33.99</v>
+      </c>
+      <c r="F43">
+        <v>33.99</v>
+      </c>
+      <c r="G43">
+        <v>33.99</v>
+      </c>
+      <c r="H43">
+        <v>33.99</v>
+      </c>
+      <c r="I43">
+        <v>33.99</v>
+      </c>
+      <c r="J43">
+        <v>33.99</v>
+      </c>
+      <c r="K43">
+        <v>33.99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>31.49</v>
+      </c>
+      <c r="D44">
+        <v>31.49</v>
+      </c>
+      <c r="E44">
+        <v>31.49</v>
+      </c>
+      <c r="F44">
+        <v>31.49</v>
+      </c>
+      <c r="G44">
+        <v>31.49</v>
+      </c>
+      <c r="H44">
+        <v>31.49</v>
+      </c>
+      <c r="I44">
+        <v>31.49</v>
+      </c>
+      <c r="J44">
+        <v>31.49</v>
+      </c>
+      <c r="K44">
+        <v>31.49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>45</v>
       </c>
@@ -1347,7 +1829,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>46</v>
       </c>
@@ -1355,7 +1837,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>47</v>
       </c>
@@ -1363,7 +1845,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>48</v>
       </c>
@@ -1371,7 +1853,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>49</v>
       </c>
@@ -1379,15 +1861,42 @@
         <v>201</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>33.99</v>
+      </c>
+      <c r="D50">
+        <v>33.99</v>
+      </c>
+      <c r="E50">
+        <v>33.99</v>
+      </c>
+      <c r="F50">
+        <v>33.99</v>
+      </c>
+      <c r="G50">
+        <v>33.99</v>
+      </c>
+      <c r="H50">
+        <v>33.99</v>
+      </c>
+      <c r="I50">
+        <v>33.99</v>
+      </c>
+      <c r="J50">
+        <v>33.99</v>
+      </c>
+      <c r="K50">
+        <v>33.99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>51</v>
       </c>
@@ -1395,7 +1904,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>52</v>
       </c>
@@ -1403,7 +1912,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>53</v>
       </c>
@@ -1411,15 +1920,42 @@
         <v>201</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>24.49</v>
+      </c>
+      <c r="D54">
+        <v>24.49</v>
+      </c>
+      <c r="E54">
+        <v>24.49</v>
+      </c>
+      <c r="F54">
+        <v>24.49</v>
+      </c>
+      <c r="G54">
+        <v>24.49</v>
+      </c>
+      <c r="H54">
+        <v>24.49</v>
+      </c>
+      <c r="I54">
+        <v>24.49</v>
+      </c>
+      <c r="J54">
+        <v>24.49</v>
+      </c>
+      <c r="K54">
+        <v>24.49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>55</v>
       </c>
@@ -1427,15 +1963,42 @@
         <v>201</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>34.99</v>
+      </c>
+      <c r="D56">
+        <v>34.99</v>
+      </c>
+      <c r="E56">
+        <v>34.99</v>
+      </c>
+      <c r="F56">
+        <v>34.99</v>
+      </c>
+      <c r="G56">
+        <v>34.99</v>
+      </c>
+      <c r="H56">
+        <v>34.99</v>
+      </c>
+      <c r="I56">
+        <v>34.99</v>
+      </c>
+      <c r="J56">
+        <v>34.99</v>
+      </c>
+      <c r="K56">
+        <v>34.99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>57</v>
       </c>
@@ -1443,31 +2006,112 @@
         <v>201</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>25.49</v>
+      </c>
+      <c r="D58">
+        <v>25.49</v>
+      </c>
+      <c r="E58">
+        <v>25.49</v>
+      </c>
+      <c r="F58">
+        <v>25.49</v>
+      </c>
+      <c r="G58">
+        <v>25.49</v>
+      </c>
+      <c r="H58">
+        <v>25.49</v>
+      </c>
+      <c r="I58">
+        <v>25.49</v>
+      </c>
+      <c r="J58">
+        <v>25.49</v>
+      </c>
+      <c r="K58">
+        <v>25.49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>25.99</v>
+      </c>
+      <c r="D59">
+        <v>25.99</v>
+      </c>
+      <c r="E59">
+        <v>25.99</v>
+      </c>
+      <c r="F59">
+        <v>25.99</v>
+      </c>
+      <c r="G59">
+        <v>25.99</v>
+      </c>
+      <c r="H59">
+        <v>25.99</v>
+      </c>
+      <c r="I59">
+        <v>25.99</v>
+      </c>
+      <c r="J59">
+        <v>25.99</v>
+      </c>
+      <c r="K59">
+        <v>25.99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>31.49</v>
+      </c>
+      <c r="D60">
+        <v>31.49</v>
+      </c>
+      <c r="E60">
+        <v>31.49</v>
+      </c>
+      <c r="F60">
+        <v>31.49</v>
+      </c>
+      <c r="G60">
+        <v>31.49</v>
+      </c>
+      <c r="H60">
+        <v>31.49</v>
+      </c>
+      <c r="I60">
+        <v>31.49</v>
+      </c>
+      <c r="J60">
+        <v>31.49</v>
+      </c>
+      <c r="K60">
+        <v>31.49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>61</v>
       </c>
@@ -1475,7 +2119,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>62</v>
       </c>
@@ -1483,23 +2127,56 @@
         <v>201</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J63">
+        <v>25.49</v>
+      </c>
+      <c r="K63">
+        <v>25.49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>22.99</v>
+      </c>
+      <c r="D64">
+        <v>22.99</v>
+      </c>
+      <c r="E64">
+        <v>22.99</v>
+      </c>
+      <c r="F64">
+        <v>22.99</v>
+      </c>
+      <c r="G64">
+        <v>22.99</v>
+      </c>
+      <c r="H64">
+        <v>22.99</v>
+      </c>
+      <c r="I64">
+        <v>22.99</v>
+      </c>
+      <c r="J64">
+        <v>22.99</v>
+      </c>
+      <c r="K64">
+        <v>22.99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>65</v>
       </c>
@@ -1507,7 +2184,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>66</v>
       </c>
@@ -1515,7 +2192,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>67</v>
       </c>
@@ -1523,7 +2200,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>68</v>
       </c>
@@ -1531,7 +2208,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>69</v>
       </c>
@@ -1539,7 +2216,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>70</v>
       </c>
@@ -1547,7 +2224,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>71</v>
       </c>
@@ -1555,7 +2232,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>72</v>
       </c>
@@ -1563,7 +2240,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>73</v>
       </c>
@@ -1571,7 +2248,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>74</v>
       </c>
@@ -1579,7 +2256,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>75</v>
       </c>
@@ -1587,7 +2264,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>76</v>
       </c>
@@ -1595,7 +2272,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>77</v>
       </c>
@@ -1603,23 +2280,77 @@
         <v>201</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>25.49</v>
+      </c>
+      <c r="D78">
+        <v>25.49</v>
+      </c>
+      <c r="E78">
+        <v>25.49</v>
+      </c>
+      <c r="F78">
+        <v>25.49</v>
+      </c>
+      <c r="G78">
+        <v>25.49</v>
+      </c>
+      <c r="H78">
+        <v>25.49</v>
+      </c>
+      <c r="I78">
+        <v>25.49</v>
+      </c>
+      <c r="J78">
+        <v>25.49</v>
+      </c>
+      <c r="K78">
+        <v>25.49</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>25.49</v>
+      </c>
+      <c r="D79">
+        <v>25.49</v>
+      </c>
+      <c r="E79">
+        <v>25.49</v>
+      </c>
+      <c r="F79">
+        <v>25.49</v>
+      </c>
+      <c r="G79">
+        <v>25.49</v>
+      </c>
+      <c r="H79">
+        <v>25.49</v>
+      </c>
+      <c r="I79">
+        <v>25.49</v>
+      </c>
+      <c r="J79">
+        <v>25.49</v>
+      </c>
+      <c r="K79">
+        <v>25.49</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>80</v>
       </c>
@@ -1627,7 +2358,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>81</v>
       </c>
@@ -1635,7 +2366,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>82</v>
       </c>
@@ -1643,15 +2374,42 @@
         <v>201</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>27.49</v>
+      </c>
+      <c r="D83">
+        <v>27.49</v>
+      </c>
+      <c r="E83">
+        <v>27.49</v>
+      </c>
+      <c r="F83">
+        <v>27.49</v>
+      </c>
+      <c r="G83">
+        <v>27.49</v>
+      </c>
+      <c r="H83">
+        <v>27.49</v>
+      </c>
+      <c r="I83">
+        <v>27.49</v>
+      </c>
+      <c r="J83">
+        <v>27.49</v>
+      </c>
+      <c r="K83">
+        <v>27.49</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>84</v>
       </c>
@@ -1659,7 +2417,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>85</v>
       </c>
@@ -1667,7 +2425,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>86</v>
       </c>
@@ -1675,7 +2433,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>87</v>
       </c>
@@ -1683,23 +2441,77 @@
         <v>201</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>31.49</v>
+      </c>
+      <c r="D88">
+        <v>31.49</v>
+      </c>
+      <c r="E88">
+        <v>31.49</v>
+      </c>
+      <c r="F88">
+        <v>31.49</v>
+      </c>
+      <c r="G88">
+        <v>31.49</v>
+      </c>
+      <c r="H88">
+        <v>31.49</v>
+      </c>
+      <c r="I88">
+        <v>31.49</v>
+      </c>
+      <c r="J88">
+        <v>31.49</v>
+      </c>
+      <c r="K88">
+        <v>31.49</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>31.99</v>
+      </c>
+      <c r="D89">
+        <v>31.99</v>
+      </c>
+      <c r="E89" s="9">
+        <v>33.99</v>
+      </c>
+      <c r="F89">
+        <v>33.99</v>
+      </c>
+      <c r="G89">
+        <v>33.99</v>
+      </c>
+      <c r="H89" s="15">
+        <v>31.99</v>
+      </c>
+      <c r="I89" s="21">
+        <v>33.99</v>
+      </c>
+      <c r="J89">
+        <v>33.99</v>
+      </c>
+      <c r="K89" s="34">
+        <v>31.99</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>90</v>
       </c>
@@ -1707,7 +2519,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>91</v>
       </c>
@@ -1715,7 +2527,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>92</v>
       </c>
@@ -1723,7 +2535,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>93</v>
       </c>
@@ -1731,7 +2543,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>94</v>
       </c>
@@ -1739,7 +2551,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>95</v>
       </c>
@@ -1747,7 +2559,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>96</v>
       </c>
@@ -1755,7 +2567,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>97</v>
       </c>
@@ -1763,7 +2575,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>98</v>
       </c>
@@ -1771,7 +2583,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>99</v>
       </c>
@@ -1779,7 +2591,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>100</v>
       </c>
@@ -1787,7 +2599,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>101</v>
       </c>
@@ -1795,7 +2607,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>102</v>
       </c>
@@ -1803,7 +2615,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>103</v>
       </c>
@@ -1811,7 +2623,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>104</v>
       </c>
@@ -1819,7 +2631,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>105</v>
       </c>
@@ -1827,7 +2639,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>106</v>
       </c>
@@ -1835,7 +2647,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>107</v>
       </c>
@@ -1843,15 +2655,42 @@
         <v>201</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>31.49</v>
+      </c>
+      <c r="D108">
+        <v>31.49</v>
+      </c>
+      <c r="E108">
+        <v>31.49</v>
+      </c>
+      <c r="F108">
+        <v>31.49</v>
+      </c>
+      <c r="G108">
+        <v>31.49</v>
+      </c>
+      <c r="H108">
+        <v>31.49</v>
+      </c>
+      <c r="I108">
+        <v>31.49</v>
+      </c>
+      <c r="J108">
+        <v>31.49</v>
+      </c>
+      <c r="K108">
+        <v>31.49</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>109</v>
       </c>
@@ -1859,7 +2698,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>110</v>
       </c>
@@ -1867,7 +2706,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>111</v>
       </c>
@@ -1875,7 +2714,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>112</v>
       </c>
@@ -1883,7 +2722,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>113</v>
       </c>
@@ -1891,7 +2730,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>114</v>
       </c>
@@ -1899,7 +2738,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>115</v>
       </c>
@@ -1907,7 +2746,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>116</v>
       </c>
@@ -1915,23 +2754,77 @@
         <v>201</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <v>22.95</v>
+      </c>
+      <c r="D117">
+        <v>22.95</v>
+      </c>
+      <c r="E117">
+        <v>22.95</v>
+      </c>
+      <c r="F117">
+        <v>22.95</v>
+      </c>
+      <c r="G117">
+        <v>22.95</v>
+      </c>
+      <c r="H117">
+        <v>22.95</v>
+      </c>
+      <c r="I117">
+        <v>22.95</v>
+      </c>
+      <c r="J117">
+        <v>22.95</v>
+      </c>
+      <c r="K117">
+        <v>22.95</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>118</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <v>23.95</v>
+      </c>
+      <c r="D118">
+        <v>23.95</v>
+      </c>
+      <c r="E118">
+        <v>23.95</v>
+      </c>
+      <c r="F118">
+        <v>23.95</v>
+      </c>
+      <c r="G118">
+        <v>23.95</v>
+      </c>
+      <c r="H118">
+        <v>23.95</v>
+      </c>
+      <c r="I118">
+        <v>23.95</v>
+      </c>
+      <c r="J118">
+        <v>23.95</v>
+      </c>
+      <c r="K118">
+        <v>23.95</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>119</v>
       </c>
@@ -1939,7 +2832,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>120</v>
       </c>
@@ -1947,23 +2840,77 @@
         <v>201</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <v>31.99</v>
+      </c>
+      <c r="D121">
+        <v>31.99</v>
+      </c>
+      <c r="E121" s="10">
+        <v>34.99</v>
+      </c>
+      <c r="F121" s="12">
+        <v>31.99</v>
+      </c>
+      <c r="G121" s="13">
+        <v>34.99</v>
+      </c>
+      <c r="H121" s="16">
+        <v>31.99</v>
+      </c>
+      <c r="I121">
+        <v>31.99</v>
+      </c>
+      <c r="J121">
+        <v>31.99</v>
+      </c>
+      <c r="K121">
+        <v>31.99</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>122</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <v>32.99</v>
+      </c>
+      <c r="D122">
+        <v>32.99</v>
+      </c>
+      <c r="E122">
+        <v>32.99</v>
+      </c>
+      <c r="F122">
+        <v>32.99</v>
+      </c>
+      <c r="G122">
+        <v>32.99</v>
+      </c>
+      <c r="H122">
+        <v>32.99</v>
+      </c>
+      <c r="I122">
+        <v>32.99</v>
+      </c>
+      <c r="J122">
+        <v>32.99</v>
+      </c>
+      <c r="K122">
+        <v>32.99</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>123</v>
       </c>
@@ -1971,7 +2918,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>124</v>
       </c>
@@ -1979,7 +2926,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>125</v>
       </c>
@@ -1987,7 +2934,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>126</v>
       </c>
@@ -1995,15 +2942,42 @@
         <v>201</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <v>36.99</v>
+      </c>
+      <c r="D127">
+        <v>36.99</v>
+      </c>
+      <c r="E127">
+        <v>36.99</v>
+      </c>
+      <c r="F127">
+        <v>36.99</v>
+      </c>
+      <c r="G127" s="14">
+        <v>33.99</v>
+      </c>
+      <c r="H127">
+        <v>33.99</v>
+      </c>
+      <c r="I127">
+        <v>33.99</v>
+      </c>
+      <c r="J127" s="33">
+        <v>36.99</v>
+      </c>
+      <c r="K127">
+        <v>36.99</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>128</v>
       </c>
@@ -2011,15 +2985,42 @@
         <v>201</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>129</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <v>26.99</v>
+      </c>
+      <c r="D129">
+        <v>26.99</v>
+      </c>
+      <c r="E129">
+        <v>26.99</v>
+      </c>
+      <c r="F129">
+        <v>26.99</v>
+      </c>
+      <c r="G129">
+        <v>26.99</v>
+      </c>
+      <c r="H129">
+        <v>26.99</v>
+      </c>
+      <c r="I129">
+        <v>26.99</v>
+      </c>
+      <c r="J129">
+        <v>26.99</v>
+      </c>
+      <c r="K129">
+        <v>26.99</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>130</v>
       </c>
@@ -2027,7 +3028,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>131</v>
       </c>
@@ -2035,7 +3036,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>132</v>
       </c>
@@ -2043,7 +3044,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>133</v>
       </c>
@@ -2051,7 +3052,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>134</v>
       </c>
@@ -2059,7 +3060,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>135</v>
       </c>
@@ -2067,7 +3068,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>136</v>
       </c>
@@ -2075,15 +3076,42 @@
         <v>201</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>137</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C137">
+        <v>25.49</v>
+      </c>
+      <c r="D137">
+        <v>25.49</v>
+      </c>
+      <c r="E137">
+        <v>25.49</v>
+      </c>
+      <c r="F137">
+        <v>25.49</v>
+      </c>
+      <c r="G137">
+        <v>25.49</v>
+      </c>
+      <c r="H137">
+        <v>25.49</v>
+      </c>
+      <c r="I137">
+        <v>25.49</v>
+      </c>
+      <c r="J137">
+        <v>25.49</v>
+      </c>
+      <c r="K137">
+        <v>25.49</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>138</v>
       </c>
@@ -2091,7 +3119,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>139</v>
       </c>
@@ -2099,7 +3127,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>140</v>
       </c>
@@ -2107,7 +3135,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>141</v>
       </c>
@@ -2115,7 +3143,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>142</v>
       </c>
@@ -2123,7 +3151,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>143</v>
       </c>
@@ -2131,7 +3159,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>144</v>
       </c>
@@ -2139,7 +3167,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>145</v>
       </c>
@@ -2147,7 +3175,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>146</v>
       </c>
@@ -2155,7 +3183,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>147</v>
       </c>
@@ -2163,7 +3191,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>148</v>
       </c>
@@ -2171,7 +3199,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>149</v>
       </c>
@@ -2179,7 +3207,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>150</v>
       </c>
@@ -2187,7 +3215,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>151</v>
       </c>
@@ -2195,7 +3223,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>152</v>
       </c>
@@ -2203,7 +3231,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>153</v>
       </c>
@@ -2211,7 +3239,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>154</v>
       </c>
@@ -2219,7 +3247,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>155</v>
       </c>
@@ -2227,7 +3255,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>156</v>
       </c>
@@ -2235,7 +3263,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>157</v>
       </c>
@@ -2243,7 +3271,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>158</v>
       </c>
@@ -2251,7 +3279,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>159</v>
       </c>
@@ -2259,39 +3287,147 @@
         <v>201</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>160</v>
       </c>
       <c r="B160" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C160">
+        <v>31.49</v>
+      </c>
+      <c r="D160">
+        <v>31.49</v>
+      </c>
+      <c r="E160">
+        <v>31.49</v>
+      </c>
+      <c r="F160">
+        <v>31.49</v>
+      </c>
+      <c r="G160">
+        <v>31.49</v>
+      </c>
+      <c r="H160">
+        <v>31.49</v>
+      </c>
+      <c r="I160" s="22">
+        <v>33.99</v>
+      </c>
+      <c r="J160">
+        <v>33.99</v>
+      </c>
+      <c r="K160">
+        <v>33.99</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>161</v>
       </c>
       <c r="B161" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C161">
+        <v>22.34</v>
+      </c>
+      <c r="D161">
+        <v>22.34</v>
+      </c>
+      <c r="E161">
+        <v>22.34</v>
+      </c>
+      <c r="F161">
+        <v>22.34</v>
+      </c>
+      <c r="G161">
+        <v>22.34</v>
+      </c>
+      <c r="H161">
+        <v>22.34</v>
+      </c>
+      <c r="I161" s="23">
+        <v>23.49</v>
+      </c>
+      <c r="J161">
+        <v>23.49</v>
+      </c>
+      <c r="K161">
+        <v>23.49</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B162" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C162">
+        <v>23.99</v>
+      </c>
+      <c r="D162">
+        <v>23.99</v>
+      </c>
+      <c r="E162">
+        <v>23.99</v>
+      </c>
+      <c r="F162">
+        <v>23.99</v>
+      </c>
+      <c r="G162">
+        <v>23.99</v>
+      </c>
+      <c r="H162">
+        <v>23.99</v>
+      </c>
+      <c r="I162">
+        <v>23.99</v>
+      </c>
+      <c r="J162">
+        <v>23.99</v>
+      </c>
+      <c r="K162">
+        <v>23.99</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>163</v>
       </c>
       <c r="B163" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C163">
+        <v>32.99</v>
+      </c>
+      <c r="D163">
+        <v>32.99</v>
+      </c>
+      <c r="E163">
+        <v>32.99</v>
+      </c>
+      <c r="F163">
+        <v>32.99</v>
+      </c>
+      <c r="G163">
+        <v>32.99</v>
+      </c>
+      <c r="H163">
+        <v>32.99</v>
+      </c>
+      <c r="I163">
+        <v>32.99</v>
+      </c>
+      <c r="J163">
+        <v>32.99</v>
+      </c>
+      <c r="K163">
+        <v>32.99</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>164</v>
       </c>
@@ -2299,299 +3435,1077 @@
         <v>201</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>165</v>
       </c>
       <c r="B165" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C165">
+        <v>32.99</v>
+      </c>
+      <c r="D165">
+        <v>32.99</v>
+      </c>
+      <c r="E165">
+        <v>32.99</v>
+      </c>
+      <c r="F165">
+        <v>32.99</v>
+      </c>
+      <c r="G165">
+        <v>32.99</v>
+      </c>
+      <c r="H165">
+        <v>32.99</v>
+      </c>
+      <c r="I165" s="24">
+        <v>33.99</v>
+      </c>
+      <c r="J165">
+        <v>33.99</v>
+      </c>
+      <c r="K165">
+        <v>33.99</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>166</v>
       </c>
       <c r="B166" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C166">
+        <v>32.99</v>
+      </c>
+      <c r="D166">
+        <v>32.99</v>
+      </c>
+      <c r="E166">
+        <v>32.99</v>
+      </c>
+      <c r="F166">
+        <v>32.99</v>
+      </c>
+      <c r="G166">
+        <v>32.99</v>
+      </c>
+      <c r="H166">
+        <v>32.99</v>
+      </c>
+      <c r="I166">
+        <v>32.99</v>
+      </c>
+      <c r="J166">
+        <v>32.99</v>
+      </c>
+      <c r="K166">
+        <v>32.99</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>167</v>
       </c>
       <c r="B167" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C167">
+        <v>21.5</v>
+      </c>
+      <c r="D167">
+        <v>21.5</v>
+      </c>
+      <c r="E167">
+        <v>21.5</v>
+      </c>
+      <c r="F167">
+        <v>21.5</v>
+      </c>
+      <c r="G167">
+        <v>21.5</v>
+      </c>
+      <c r="H167">
+        <v>21.5</v>
+      </c>
+      <c r="I167" s="25">
+        <v>23.49</v>
+      </c>
+      <c r="J167">
+        <v>23.49</v>
+      </c>
+      <c r="K167">
+        <v>23.49</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>168</v>
       </c>
       <c r="B168" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C168">
+        <v>30.28</v>
+      </c>
+      <c r="D168">
+        <v>30.28</v>
+      </c>
+      <c r="E168">
+        <v>30.28</v>
+      </c>
+      <c r="F168">
+        <v>30.28</v>
+      </c>
+      <c r="G168">
+        <v>30.28</v>
+      </c>
+      <c r="H168">
+        <v>30.28</v>
+      </c>
+      <c r="I168">
+        <v>30.28</v>
+      </c>
+      <c r="J168">
+        <v>30.28</v>
+      </c>
+      <c r="K168">
+        <v>30.28</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>169</v>
       </c>
       <c r="B169" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C169">
+        <v>21.95</v>
+      </c>
+      <c r="D169">
+        <v>21.95</v>
+      </c>
+      <c r="E169">
+        <v>21.95</v>
+      </c>
+      <c r="F169">
+        <v>21.95</v>
+      </c>
+      <c r="G169">
+        <v>21.95</v>
+      </c>
+      <c r="H169">
+        <v>21.95</v>
+      </c>
+      <c r="I169">
+        <v>21.95</v>
+      </c>
+      <c r="J169">
+        <v>21.95</v>
+      </c>
+      <c r="K169">
+        <v>21.95</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B170" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C170">
+        <v>23.49</v>
+      </c>
+      <c r="D170">
+        <v>23.49</v>
+      </c>
+      <c r="E170">
+        <v>23.49</v>
+      </c>
+      <c r="F170">
+        <v>23.49</v>
+      </c>
+      <c r="G170">
+        <v>23.49</v>
+      </c>
+      <c r="H170">
+        <v>23.49</v>
+      </c>
+      <c r="I170">
+        <v>23.49</v>
+      </c>
+      <c r="J170">
+        <v>23.49</v>
+      </c>
+      <c r="K170">
+        <v>23.49</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B171" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C171">
+        <v>30</v>
+      </c>
+      <c r="D171">
+        <v>30</v>
+      </c>
+      <c r="E171">
+        <v>30</v>
+      </c>
+      <c r="F171">
+        <v>30</v>
+      </c>
+      <c r="G171">
+        <v>30</v>
+      </c>
+      <c r="H171" s="17">
+        <v>33</v>
+      </c>
+      <c r="I171">
+        <v>33</v>
+      </c>
+      <c r="J171">
+        <v>33</v>
+      </c>
+      <c r="K171">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B172" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="5" t="s">
-        <v>172</v>
+      <c r="C172">
+        <v>32.99</v>
+      </c>
+      <c r="D172">
+        <v>32.99</v>
+      </c>
+      <c r="E172">
+        <v>32.99</v>
+      </c>
+      <c r="F172">
+        <v>32.99</v>
+      </c>
+      <c r="G172">
+        <v>32.99</v>
+      </c>
+      <c r="H172">
+        <v>32.99</v>
+      </c>
+      <c r="I172">
+        <v>32.99</v>
+      </c>
+      <c r="J172">
+        <v>32.99</v>
+      </c>
+      <c r="K172">
+        <v>32.99</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="B173" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
-        <v>173</v>
+      <c r="C173">
+        <v>21.95</v>
+      </c>
+      <c r="D173">
+        <v>21.95</v>
+      </c>
+      <c r="E173">
+        <v>21.95</v>
+      </c>
+      <c r="F173">
+        <v>21.95</v>
+      </c>
+      <c r="G173">
+        <v>21.95</v>
+      </c>
+      <c r="H173">
+        <v>21.95</v>
+      </c>
+      <c r="I173" s="26">
+        <v>23.99</v>
+      </c>
+      <c r="J173">
+        <v>23.99</v>
+      </c>
+      <c r="K173">
+        <v>23.99</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="B174" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C174">
+        <v>21.95</v>
+      </c>
+      <c r="D174">
+        <v>21.95</v>
+      </c>
+      <c r="E174">
+        <v>21.95</v>
+      </c>
+      <c r="F174">
+        <v>21.95</v>
+      </c>
+      <c r="G174">
+        <v>21.95</v>
+      </c>
+      <c r="H174">
+        <v>21.95</v>
+      </c>
+      <c r="I174">
+        <v>21.95</v>
+      </c>
+      <c r="J174">
+        <v>21.95</v>
+      </c>
+      <c r="K174">
+        <v>21.95</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B175" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C175">
+        <v>21.95</v>
+      </c>
+      <c r="D175">
+        <v>21.95</v>
+      </c>
+      <c r="E175">
+        <v>21.95</v>
+      </c>
+      <c r="F175">
+        <v>21.95</v>
+      </c>
+      <c r="G175">
+        <v>21.95</v>
+      </c>
+      <c r="H175">
+        <v>21.95</v>
+      </c>
+      <c r="I175">
+        <v>21.95</v>
+      </c>
+      <c r="J175">
+        <v>21.95</v>
+      </c>
+      <c r="K175">
+        <v>21.95</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B176" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C176">
+        <v>32.99</v>
+      </c>
+      <c r="D176">
+        <v>32.99</v>
+      </c>
+      <c r="E176">
+        <v>32.99</v>
+      </c>
+      <c r="F176">
+        <v>32.99</v>
+      </c>
+      <c r="G176">
+        <v>32.99</v>
+      </c>
+      <c r="H176">
+        <v>32.99</v>
+      </c>
+      <c r="I176">
+        <v>32.99</v>
+      </c>
+      <c r="J176">
+        <v>32.99</v>
+      </c>
+      <c r="K176">
+        <v>32.99</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B177" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C177">
+        <v>32.99</v>
+      </c>
+      <c r="D177">
+        <v>32.99</v>
+      </c>
+      <c r="E177">
+        <v>32.99</v>
+      </c>
+      <c r="F177">
+        <v>32.99</v>
+      </c>
+      <c r="G177">
+        <v>32.99</v>
+      </c>
+      <c r="H177">
+        <v>32.99</v>
+      </c>
+      <c r="I177">
+        <v>32.99</v>
+      </c>
+      <c r="J177">
+        <v>32.99</v>
+      </c>
+      <c r="K177">
+        <v>32.99</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C178">
+        <v>22.99</v>
+      </c>
+      <c r="D178">
+        <v>22.99</v>
+      </c>
+      <c r="E178">
+        <v>22.99</v>
+      </c>
+      <c r="F178">
+        <v>22.99</v>
+      </c>
+      <c r="G178">
+        <v>22.99</v>
+      </c>
+      <c r="H178">
+        <v>22.99</v>
+      </c>
+      <c r="I178">
+        <v>22.99</v>
+      </c>
+      <c r="J178">
+        <v>22.99</v>
+      </c>
+      <c r="K178">
+        <v>22.99</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B179" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C179">
+        <v>32.99</v>
+      </c>
+      <c r="D179">
+        <v>32.99</v>
+      </c>
+      <c r="E179">
+        <v>32.99</v>
+      </c>
+      <c r="F179">
+        <v>32.99</v>
+      </c>
+      <c r="G179">
+        <v>32.99</v>
+      </c>
+      <c r="H179">
+        <v>32.99</v>
+      </c>
+      <c r="I179">
+        <v>32.99</v>
+      </c>
+      <c r="J179">
+        <v>32.99</v>
+      </c>
+      <c r="K179">
+        <v>32.99</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B180" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B181" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J181">
+        <v>34.5</v>
+      </c>
+      <c r="K181">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B182" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="5" t="s">
-        <v>182</v>
+      <c r="C182">
+        <v>22.95</v>
+      </c>
+      <c r="D182">
+        <v>22.95</v>
+      </c>
+      <c r="E182">
+        <v>22.95</v>
+      </c>
+      <c r="F182">
+        <v>22.95</v>
+      </c>
+      <c r="G182">
+        <v>22.95</v>
+      </c>
+      <c r="H182">
+        <v>22.95</v>
+      </c>
+      <c r="I182">
+        <v>22.95</v>
+      </c>
+      <c r="J182">
+        <v>22.95</v>
+      </c>
+      <c r="K182">
+        <v>22.95</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="B183" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C183">
+        <v>32.99</v>
+      </c>
+      <c r="D183">
+        <v>32.99</v>
+      </c>
+      <c r="E183">
+        <v>32.99</v>
+      </c>
+      <c r="F183">
+        <v>32.99</v>
+      </c>
+      <c r="G183">
+        <v>32.99</v>
+      </c>
+      <c r="H183">
+        <v>32.99</v>
+      </c>
+      <c r="I183" s="27">
+        <v>33.49</v>
+      </c>
+      <c r="J183">
+        <v>33.49</v>
+      </c>
+      <c r="K183">
+        <v>33.49</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B184" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="4" t="s">
-        <v>184</v>
+      <c r="C184">
+        <v>32.99</v>
+      </c>
+      <c r="D184">
+        <v>32.99</v>
+      </c>
+      <c r="E184">
+        <v>32.99</v>
+      </c>
+      <c r="F184">
+        <v>32.99</v>
+      </c>
+      <c r="G184">
+        <v>32.99</v>
+      </c>
+      <c r="H184">
+        <v>32.99</v>
+      </c>
+      <c r="I184" s="28">
+        <v>33.99</v>
+      </c>
+      <c r="J184">
+        <v>33.99</v>
+      </c>
+      <c r="K184">
+        <v>33.99</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="5" t="s">
-        <v>185</v>
+      <c r="C185">
+        <v>22.95</v>
+      </c>
+      <c r="D185">
+        <v>22.95</v>
+      </c>
+      <c r="E185">
+        <v>22.95</v>
+      </c>
+      <c r="F185">
+        <v>22.95</v>
+      </c>
+      <c r="G185">
+        <v>22.95</v>
+      </c>
+      <c r="H185">
+        <v>22.95</v>
+      </c>
+      <c r="I185">
+        <v>22.95</v>
+      </c>
+      <c r="J185">
+        <v>22.95</v>
+      </c>
+      <c r="K185">
+        <v>22.95</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="B186" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C186">
+        <v>22.95</v>
+      </c>
+      <c r="D186">
+        <v>22.95</v>
+      </c>
+      <c r="E186">
+        <v>22.95</v>
+      </c>
+      <c r="F186">
+        <v>22.95</v>
+      </c>
+      <c r="G186">
+        <v>22.95</v>
+      </c>
+      <c r="H186">
+        <v>22.95</v>
+      </c>
+      <c r="I186">
+        <v>22.95</v>
+      </c>
+      <c r="J186">
+        <v>22.95</v>
+      </c>
+      <c r="K186">
+        <v>22.95</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B187" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="4" t="s">
-        <v>187</v>
+      <c r="C187">
+        <v>31.49</v>
+      </c>
+      <c r="D187">
+        <v>31.49</v>
+      </c>
+      <c r="E187">
+        <v>31.49</v>
+      </c>
+      <c r="F187">
+        <v>31.49</v>
+      </c>
+      <c r="G187">
+        <v>31.49</v>
+      </c>
+      <c r="H187">
+        <v>31.49</v>
+      </c>
+      <c r="I187" s="29">
+        <v>33.99</v>
+      </c>
+      <c r="J187">
+        <v>33.99</v>
+      </c>
+      <c r="K187">
+        <v>33.99</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="B188" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C188">
+        <v>34.99</v>
+      </c>
+      <c r="D188">
+        <v>34.99</v>
+      </c>
+      <c r="E188">
+        <v>34.99</v>
+      </c>
+      <c r="F188">
+        <v>34.99</v>
+      </c>
+      <c r="G188">
+        <v>34.99</v>
+      </c>
+      <c r="H188">
+        <v>34.99</v>
+      </c>
+      <c r="I188">
+        <v>34.99</v>
+      </c>
+      <c r="J188">
+        <v>34.99</v>
+      </c>
+      <c r="K188">
+        <v>34.99</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C189">
+        <v>32.99</v>
+      </c>
+      <c r="D189">
+        <v>32.99</v>
+      </c>
+      <c r="E189">
+        <v>32.99</v>
+      </c>
+      <c r="F189">
+        <v>32.99</v>
+      </c>
+      <c r="G189">
+        <v>32.99</v>
+      </c>
+      <c r="H189">
+        <v>32.99</v>
+      </c>
+      <c r="I189" s="30">
+        <v>33.99</v>
+      </c>
+      <c r="J189">
+        <v>33.99</v>
+      </c>
+      <c r="K189">
+        <v>33.99</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B190" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C190">
+        <v>21.95</v>
+      </c>
+      <c r="D190">
+        <v>21.95</v>
+      </c>
+      <c r="E190">
+        <v>21.95</v>
+      </c>
+      <c r="F190">
+        <v>21.95</v>
+      </c>
+      <c r="G190">
+        <v>21.95</v>
+      </c>
+      <c r="H190">
+        <v>21.95</v>
+      </c>
+      <c r="I190" s="31">
+        <v>23.49</v>
+      </c>
+      <c r="J190">
+        <v>23.49</v>
+      </c>
+      <c r="K190">
+        <v>23.49</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B191" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C191">
+        <v>32.99</v>
+      </c>
+      <c r="D191">
+        <v>32.99</v>
+      </c>
+      <c r="E191">
+        <v>32.99</v>
+      </c>
+      <c r="F191">
+        <v>32.99</v>
+      </c>
+      <c r="G191">
+        <v>32.99</v>
+      </c>
+      <c r="H191">
+        <v>32.99</v>
+      </c>
+      <c r="I191">
+        <v>32.99</v>
+      </c>
+      <c r="J191">
+        <v>32.99</v>
+      </c>
+      <c r="K191">
+        <v>32.99</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B192" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="5" t="s">
-        <v>192</v>
+      <c r="C192">
+        <v>30.97</v>
+      </c>
+      <c r="D192">
+        <v>30.97</v>
+      </c>
+      <c r="E192">
+        <v>30.97</v>
+      </c>
+      <c r="F192">
+        <v>30.97</v>
+      </c>
+      <c r="G192">
+        <v>30.97</v>
+      </c>
+      <c r="H192">
+        <v>30.97</v>
+      </c>
+      <c r="I192" s="32">
+        <v>33.99</v>
+      </c>
+      <c r="J192">
+        <v>33.99</v>
+      </c>
+      <c r="K192">
+        <v>33.99</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="B193" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="4" t="s">
-        <v>193</v>
+      <c r="C193">
+        <v>22.95</v>
+      </c>
+      <c r="D193">
+        <v>22.95</v>
+      </c>
+      <c r="E193">
+        <v>22.95</v>
+      </c>
+      <c r="F193">
+        <v>22.95</v>
+      </c>
+      <c r="G193">
+        <v>22.95</v>
+      </c>
+      <c r="H193">
+        <v>22.95</v>
+      </c>
+      <c r="I193">
+        <v>22.95</v>
+      </c>
+      <c r="J193">
+        <v>22.95</v>
+      </c>
+      <c r="K193">
+        <v>22.95</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="B194" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B195" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B196" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B197" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="5" t="s">
-        <v>197</v>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="B198" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="4" t="s">
-        <v>198</v>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="B199" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C199">
+        <v>32.99</v>
+      </c>
+      <c r="D199">
+        <v>32.99</v>
+      </c>
+      <c r="E199">
+        <v>32.99</v>
+      </c>
+      <c r="F199">
+        <v>32.99</v>
+      </c>
+      <c r="G199">
+        <v>32.99</v>
+      </c>
+      <c r="H199">
+        <v>32.99</v>
+      </c>
+      <c r="I199">
+        <v>32.99</v>
+      </c>
+      <c r="J199">
+        <v>32.99</v>
+      </c>
+      <c r="K199">
+        <v>32.99</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B200" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="5" t="s">
-        <v>200</v>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="B201" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="B203" s="7" t="s">
         <v>201</v>
       </c>
     </row>
